--- a/Code/Results/Cases/Case_0_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.659353368795797</v>
+        <v>9.428760145589459</v>
       </c>
       <c r="D2">
-        <v>5.326642851922998</v>
+        <v>8.050916247272447</v>
       </c>
       <c r="E2">
-        <v>7.750613177431349</v>
+        <v>13.13308168782856</v>
       </c>
       <c r="F2">
-        <v>24.47820683464884</v>
+        <v>37.77589305663253</v>
       </c>
       <c r="G2">
-        <v>2.106739133258493</v>
+        <v>3.690168876384484</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.42011321769159</v>
+        <v>29.35703054150622</v>
       </c>
       <c r="J2">
-        <v>5.793858231448549</v>
+        <v>10.28564733870244</v>
       </c>
       <c r="K2">
-        <v>17.42405561358317</v>
+        <v>16.03830506086214</v>
       </c>
       <c r="L2">
-        <v>5.782107764333119</v>
+        <v>10.26208512969714</v>
       </c>
       <c r="M2">
-        <v>14.47081314389264</v>
+        <v>18.59136596431139</v>
       </c>
       <c r="N2">
-        <v>13.07031451466702</v>
+        <v>19.14427219226823</v>
       </c>
       <c r="O2">
-        <v>18.06622674704941</v>
+        <v>29.09722937822778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.444934215024298</v>
+        <v>9.40842994453245</v>
       </c>
       <c r="D3">
-        <v>5.180002293553318</v>
+        <v>8.03812260440194</v>
       </c>
       <c r="E3">
-        <v>7.71337704646235</v>
+        <v>13.15247976500198</v>
       </c>
       <c r="F3">
-        <v>24.21948661479509</v>
+        <v>37.86086263577771</v>
       </c>
       <c r="G3">
-        <v>2.112068888369492</v>
+        <v>3.692245676917338</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.30700209883044</v>
+        <v>29.43241442933885</v>
       </c>
       <c r="J3">
-        <v>5.838636095671051</v>
+        <v>10.30659931843412</v>
       </c>
       <c r="K3">
-        <v>16.26319007387369</v>
+        <v>15.72881507287311</v>
       </c>
       <c r="L3">
-        <v>5.817515265803216</v>
+        <v>10.28117286066747</v>
       </c>
       <c r="M3">
-        <v>13.81556605024911</v>
+        <v>18.4804777005878</v>
       </c>
       <c r="N3">
-        <v>13.19059658166205</v>
+        <v>19.18960923536597</v>
       </c>
       <c r="O3">
-        <v>18.01352997837496</v>
+        <v>29.184380304146</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.312301705077637</v>
+        <v>9.397338433290111</v>
       </c>
       <c r="D4">
-        <v>5.089468511772771</v>
+        <v>8.031172973431556</v>
       </c>
       <c r="E4">
-        <v>7.693501274886129</v>
+        <v>13.1658893008232</v>
       </c>
       <c r="F4">
-        <v>24.07983468605291</v>
+        <v>37.92109740921168</v>
       </c>
       <c r="G4">
-        <v>2.115446854033156</v>
+        <v>3.693589302120272</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.25178314191723</v>
+        <v>29.48445047007194</v>
       </c>
       <c r="J4">
-        <v>5.867535279723514</v>
+        <v>10.32024320410143</v>
       </c>
       <c r="K4">
-        <v>15.50773273246367</v>
+        <v>15.53756120404485</v>
       </c>
       <c r="L4">
-        <v>5.840651658427548</v>
+        <v>10.2936499158931</v>
       </c>
       <c r="M4">
-        <v>13.40094188426658</v>
+        <v>18.41435656598182</v>
       </c>
       <c r="N4">
-        <v>13.26798900115748</v>
+        <v>19.2192456570736</v>
       </c>
       <c r="O4">
-        <v>17.99627189763234</v>
+        <v>29.24367802000843</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.258086210634405</v>
+        <v>9.39317174400048</v>
       </c>
       <c r="D5">
-        <v>5.052500765961055</v>
+        <v>8.02857071466199</v>
       </c>
       <c r="E5">
-        <v>7.686145719848771</v>
+        <v>13.17173122963092</v>
       </c>
       <c r="F5">
-        <v>24.02766767200798</v>
+        <v>37.94766756448644</v>
       </c>
       <c r="G5">
-        <v>2.116850496074226</v>
+        <v>3.694154109348557</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.23276580989199</v>
+        <v>29.50709939961597</v>
       </c>
       <c r="J5">
-        <v>5.879664470294559</v>
+        <v>10.32599962621051</v>
       </c>
       <c r="K5">
-        <v>15.19760926798645</v>
+        <v>15.45941473875419</v>
       </c>
       <c r="L5">
-        <v>5.850429008152646</v>
+        <v>10.29892524600794</v>
       </c>
       <c r="M5">
-        <v>13.2291052310141</v>
+        <v>18.38792575092342</v>
       </c>
       <c r="N5">
-        <v>13.30040714352168</v>
+        <v>19.23177606711027</v>
       </c>
       <c r="O5">
-        <v>17.99290709356466</v>
+        <v>29.26929503656954</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.249076127116754</v>
+        <v>9.392501292723663</v>
       </c>
       <c r="D6">
-        <v>5.046359318545146</v>
+        <v>8.028152545995059</v>
       </c>
       <c r="E6">
-        <v>7.684969044119069</v>
+        <v>13.17272408739379</v>
       </c>
       <c r="F6">
-        <v>24.01928902056398</v>
+        <v>37.95220165214212</v>
       </c>
       <c r="G6">
-        <v>2.117085222416669</v>
+        <v>3.694248939752628</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.22981561109513</v>
+        <v>29.51094737661976</v>
       </c>
       <c r="J6">
-        <v>5.881699783547162</v>
+        <v>10.32696735334052</v>
       </c>
       <c r="K6">
-        <v>15.14879754457525</v>
+        <v>15.44642890709723</v>
       </c>
       <c r="L6">
-        <v>5.852073559024664</v>
+        <v>10.29981274931481</v>
       </c>
       <c r="M6">
-        <v>13.20040534000247</v>
+        <v>18.38356855534845</v>
       </c>
       <c r="N6">
-        <v>13.30584304470839</v>
+        <v>19.23388413816534</v>
       </c>
       <c r="O6">
-        <v>17.99256608185831</v>
+        <v>29.27363639102081</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.311571101952825</v>
+        <v>9.397280805578557</v>
       </c>
       <c r="D7">
-        <v>5.088970185186738</v>
+        <v>8.031136945530653</v>
       </c>
       <c r="E7">
-        <v>7.693399073028949</v>
+        <v>13.16596655826748</v>
       </c>
       <c r="F7">
-        <v>24.07911206586822</v>
+        <v>37.92144755350962</v>
       </c>
       <c r="G7">
-        <v>2.115465673599879</v>
+        <v>3.693596849314779</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.25151268593535</v>
+        <v>29.48475007835409</v>
       </c>
       <c r="J7">
-        <v>5.867697431819562</v>
+        <v>10.32032004126771</v>
       </c>
       <c r="K7">
-        <v>15.50347916765639</v>
+        <v>15.53650800656104</v>
       </c>
       <c r="L7">
-        <v>5.840782108229537</v>
+        <v>10.29372028758551</v>
       </c>
       <c r="M7">
-        <v>13.39863575852117</v>
+        <v>18.41399800332038</v>
       </c>
       <c r="N7">
-        <v>13.2684226520562</v>
+        <v>19.21941280988619</v>
       </c>
       <c r="O7">
-        <v>17.99621183951452</v>
+        <v>29.24401762132508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.585670524997486</v>
+        <v>9.421463599229698</v>
       </c>
       <c r="D8">
-        <v>5.276213372153537</v>
+        <v>8.046318264085253</v>
       </c>
       <c r="E8">
-        <v>7.737150016401587</v>
+        <v>13.1394593192227</v>
       </c>
       <c r="F8">
-        <v>24.38496630516006</v>
+        <v>37.80351505009468</v>
       </c>
       <c r="G8">
-        <v>2.108555293417873</v>
+        <v>3.690870780564949</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.37810415609858</v>
+        <v>29.38182828904039</v>
       </c>
       <c r="J8">
-        <v>5.809005386292264</v>
+        <v>10.29271012370346</v>
       </c>
       <c r="K8">
-        <v>17.03261461952323</v>
+        <v>15.93190604565789</v>
       </c>
       <c r="L8">
-        <v>5.794025290921194</v>
+        <v>10.26850970979967</v>
       </c>
       <c r="M8">
-        <v>14.24755829330593</v>
+        <v>18.55273614507455</v>
       </c>
       <c r="N8">
-        <v>13.11104708886465</v>
+        <v>19.1595314881713</v>
       </c>
       <c r="O8">
-        <v>18.04484721851332</v>
+        <v>29.12607658048208</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.112235887295324</v>
+        <v>9.479768838080984</v>
       </c>
       <c r="D9">
-        <v>5.637407840867685</v>
+        <v>8.083182342915933</v>
       </c>
       <c r="E9">
-        <v>7.846940384423795</v>
+        <v>13.09935104444817</v>
       </c>
       <c r="F9">
-        <v>25.14035630661878</v>
+        <v>37.63637166905322</v>
       </c>
       <c r="G9">
-        <v>2.095813744947815</v>
+        <v>3.686065719127724</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.74314936169898</v>
+        <v>29.22571026648086</v>
       </c>
       <c r="J9">
-        <v>5.705107573626681</v>
+        <v>10.24472914490114</v>
       </c>
       <c r="K9">
-        <v>19.69511848337083</v>
+        <v>16.69334100413541</v>
       </c>
       <c r="L9">
-        <v>5.713508615181141</v>
+        <v>10.22505905669991</v>
       </c>
       <c r="M9">
-        <v>15.80666167549289</v>
+        <v>18.83948094342303</v>
       </c>
       <c r="N9">
-        <v>12.83100950213004</v>
+        <v>19.05634174672618</v>
       </c>
       <c r="O9">
-        <v>18.26554622966522</v>
+        <v>28.94081304345809</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.488638427315875</v>
+        <v>9.529015861786357</v>
       </c>
       <c r="D10">
-        <v>5.896617323732636</v>
+        <v>8.114460390939977</v>
       </c>
       <c r="E10">
-        <v>7.942592440880127</v>
+        <v>13.07709121387987</v>
       </c>
       <c r="F10">
-        <v>25.79382105428117</v>
+        <v>37.55283939951062</v>
       </c>
       <c r="G10">
-        <v>2.086906084941059</v>
+        <v>3.682861657355556</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.08739878806977</v>
+        <v>29.13898873133651</v>
       </c>
       <c r="J10">
-        <v>5.635676202324177</v>
+        <v>10.21320446187641</v>
       </c>
       <c r="K10">
-        <v>21.4499900152755</v>
+        <v>17.23887689355851</v>
       </c>
       <c r="L10">
-        <v>5.661310959196442</v>
+        <v>10.19675804998843</v>
       </c>
       <c r="M10">
-        <v>16.87899224136673</v>
+        <v>19.05784674888521</v>
       </c>
       <c r="N10">
-        <v>12.64347200328048</v>
+        <v>18.98915411957376</v>
       </c>
       <c r="O10">
-        <v>18.51130891261486</v>
+        <v>28.83289048086489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.656935507234591</v>
+        <v>9.552758738476678</v>
       </c>
       <c r="D11">
-        <v>6.012743834218921</v>
+        <v>8.129570130267934</v>
       </c>
       <c r="E11">
-        <v>7.989427452781851</v>
+        <v>13.06852285830819</v>
       </c>
       <c r="F11">
-        <v>26.11304029353166</v>
+        <v>37.52339444267807</v>
       </c>
       <c r="G11">
-        <v>2.082942843242357</v>
+        <v>3.681474150340822</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.26142567610065</v>
+        <v>29.10563232008402</v>
       </c>
       <c r="J11">
-        <v>5.605610578521656</v>
+        <v>10.19966609117549</v>
       </c>
       <c r="K11">
-        <v>22.2054446677566</v>
+        <v>17.48298018804303</v>
       </c>
       <c r="L11">
-        <v>5.639112421832376</v>
+        <v>10.18466384745318</v>
       </c>
       <c r="M11">
-        <v>17.34960260098991</v>
+        <v>19.15858091573689</v>
       </c>
       <c r="N11">
-        <v>12.56231567643927</v>
+        <v>18.96045068309957</v>
       </c>
       <c r="O11">
-        <v>18.64270228316806</v>
+        <v>28.78994183879588</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.720197412448335</v>
+        <v>9.561937405008855</v>
       </c>
       <c r="D12">
-        <v>6.056427647689788</v>
+        <v>8.135415748696524</v>
       </c>
       <c r="E12">
-        <v>8.007644862938305</v>
+        <v>13.06550162157406</v>
       </c>
       <c r="F12">
-        <v>26.23710983898965</v>
+        <v>37.51347608506321</v>
       </c>
       <c r="G12">
-        <v>2.081454027866859</v>
+        <v>3.680958753321837</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.3298962258985</v>
+        <v>29.09387868621651</v>
       </c>
       <c r="J12">
-        <v>5.594446266822908</v>
+        <v>10.19465437075633</v>
       </c>
       <c r="K12">
-        <v>22.48542321548673</v>
+        <v>17.57474935586428</v>
       </c>
       <c r="L12">
-        <v>5.630932281599894</v>
+        <v>10.18019581320464</v>
       </c>
       <c r="M12">
-        <v>17.52525438544786</v>
+        <v>19.19690352407602</v>
       </c>
       <c r="N12">
-        <v>12.53220163938279</v>
+        <v>18.94984817117607</v>
       </c>
       <c r="O12">
-        <v>18.69538450123695</v>
+        <v>28.77456406947494</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.706594347933369</v>
+        <v>9.559952345801642</v>
       </c>
       <c r="D13">
-        <v>6.047032980923023</v>
+        <v>8.134151326411331</v>
       </c>
       <c r="E13">
-        <v>8.003699915744662</v>
+        <v>13.06614237230879</v>
       </c>
       <c r="F13">
-        <v>26.21024701541082</v>
+        <v>37.51555737386837</v>
       </c>
       <c r="G13">
-        <v>2.081774151539064</v>
+        <v>3.681069308353344</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.31503457772495</v>
+        <v>29.09637098415217</v>
       </c>
       <c r="J13">
-        <v>5.596840834248969</v>
+        <v>10.19572862776158</v>
       </c>
       <c r="K13">
-        <v>22.42539486925774</v>
+        <v>17.5550161785813</v>
       </c>
       <c r="L13">
-        <v>5.63268391063876</v>
+        <v>10.18115311922602</v>
       </c>
       <c r="M13">
-        <v>17.48753955793249</v>
+        <v>19.18864259269158</v>
       </c>
       <c r="N13">
-        <v>12.53865939264584</v>
+        <v>18.95211975406623</v>
       </c>
       <c r="O13">
-        <v>18.68390661833541</v>
+        <v>28.77783651135326</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.662149739013244</v>
+        <v>9.553510139199304</v>
       </c>
       <c r="D14">
-        <v>6.016343733379435</v>
+        <v>8.130048586498248</v>
       </c>
       <c r="E14">
-        <v>7.990916526649176</v>
+        <v>13.06826982529162</v>
       </c>
       <c r="F14">
-        <v>26.12318351733597</v>
+        <v>37.52255375811663</v>
       </c>
       <c r="G14">
-        <v>2.08282012224063</v>
+        <v>3.681431547747945</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.26700692449642</v>
+        <v>29.10464774328961</v>
       </c>
       <c r="J14">
-        <v>5.604687641662418</v>
+        <v>10.19925147216133</v>
       </c>
       <c r="K14">
-        <v>22.22860045628561</v>
+        <v>17.49054392762812</v>
       </c>
       <c r="L14">
-        <v>5.638434886372144</v>
+        <v>10.18429402164218</v>
       </c>
       <c r="M14">
-        <v>17.36410526768434</v>
+        <v>19.16173033728452</v>
       </c>
       <c r="N14">
-        <v>12.5598256624511</v>
+        <v>18.95957306373663</v>
       </c>
       <c r="O14">
-        <v>18.64697722853293</v>
+        <v>28.78865893278256</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.63486382853152</v>
+        <v>9.549588401890336</v>
       </c>
       <c r="D15">
-        <v>5.997506888172949</v>
+        <v>8.127551587928535</v>
       </c>
       <c r="E15">
-        <v>7.983149224247422</v>
+        <v>13.06960202868035</v>
       </c>
       <c r="F15">
-        <v>26.07027062234764</v>
+        <v>37.52699970562547</v>
       </c>
       <c r="G15">
-        <v>2.083462344639977</v>
+        <v>3.681654733507336</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.23792516191635</v>
+        <v>29.10983184106286</v>
       </c>
       <c r="J15">
-        <v>5.609522882632534</v>
+        <v>10.20142427597885</v>
       </c>
       <c r="K15">
-        <v>22.10726633100235</v>
+        <v>17.45096350947285</v>
       </c>
       <c r="L15">
-        <v>5.641987064450841</v>
+        <v>10.18623246017309</v>
       </c>
       <c r="M15">
-        <v>17.28816285616752</v>
+        <v>19.14526809795914</v>
       </c>
       <c r="N15">
-        <v>12.5728717602762</v>
+        <v>18.9641731636066</v>
       </c>
       <c r="O15">
-        <v>18.62474114640847</v>
+        <v>28.79540341719779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.477576666240431</v>
+        <v>9.527490757549291</v>
       </c>
       <c r="D16">
-        <v>5.888989227940428</v>
+        <v>8.113490426771115</v>
       </c>
       <c r="E16">
-        <v>7.939598888698303</v>
+        <v>13.0776824723776</v>
       </c>
       <c r="F16">
-        <v>25.77340391219602</v>
+        <v>37.55493598854426</v>
       </c>
       <c r="G16">
-        <v>2.087166813293333</v>
+        <v>3.682953739286488</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.07638201125446</v>
+        <v>29.14129140058022</v>
       </c>
       <c r="J16">
-        <v>5.63767183019853</v>
+        <v>10.21410533652454</v>
       </c>
       <c r="K16">
-        <v>21.39976265593201</v>
+        <v>17.22283518008958</v>
       </c>
       <c r="L16">
-        <v>5.662793103338701</v>
+        <v>10.19756409766639</v>
       </c>
       <c r="M16">
-        <v>16.84788296242646</v>
+        <v>19.05128960025796</v>
       </c>
       <c r="N16">
-        <v>12.6488610811316</v>
+        <v>18.99106733641287</v>
       </c>
       <c r="O16">
-        <v>18.50312576208331</v>
+        <v>28.83582113621643</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.380299863162416</v>
+        <v>9.514274357967494</v>
       </c>
       <c r="D17">
-        <v>5.821933835719494</v>
+        <v>8.105088079861563</v>
       </c>
       <c r="E17">
-        <v>7.91373624831053</v>
+        <v>13.08303813140269</v>
       </c>
       <c r="F17">
-        <v>25.59693312858273</v>
+        <v>37.57426632729158</v>
       </c>
       <c r="G17">
-        <v>2.089461596720558</v>
+        <v>3.683768540054965</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.98179133146144</v>
+        <v>29.16215265725469</v>
       </c>
       <c r="J17">
-        <v>5.655330997376207</v>
+        <v>10.22208996657176</v>
       </c>
       <c r="K17">
-        <v>20.95480415794547</v>
+        <v>17.08178432844786</v>
       </c>
       <c r="L17">
-        <v>5.675955464244826</v>
+        <v>10.20471520195574</v>
       </c>
       <c r="M17">
-        <v>16.57331390080305</v>
+        <v>18.99397778219078</v>
       </c>
       <c r="N17">
-        <v>12.69655625699274</v>
+        <v>19.00804207630219</v>
       </c>
       <c r="O17">
-        <v>18.43361645688537</v>
+        <v>28.86219180339649</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.32407539182164</v>
+        <v>9.506799087763552</v>
       </c>
       <c r="D18">
-        <v>5.783198696589308</v>
+        <v>8.100338391095557</v>
       </c>
       <c r="E18">
-        <v>7.89917323464225</v>
+        <v>13.08626522515378</v>
       </c>
       <c r="F18">
-        <v>25.49749691928893</v>
+        <v>37.5861897258084</v>
       </c>
       <c r="G18">
-        <v>2.090789914045975</v>
+        <v>3.684243787026078</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.92902200658267</v>
+        <v>29.17472499022371</v>
       </c>
       <c r="J18">
-        <v>5.665630896963657</v>
+        <v>10.22675806140923</v>
       </c>
       <c r="K18">
-        <v>20.69483895758085</v>
+        <v>17.00027777183447</v>
       </c>
       <c r="L18">
-        <v>5.683671430176214</v>
+        <v>10.20890177500583</v>
       </c>
       <c r="M18">
-        <v>16.41377404154791</v>
+        <v>18.9611466443605</v>
       </c>
       <c r="N18">
-        <v>12.72437901945404</v>
+        <v>19.01798066161193</v>
       </c>
       <c r="O18">
-        <v>18.39547474982123</v>
+        <v>28.87793787144837</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.30499333791697</v>
+        <v>9.504289955625216</v>
       </c>
       <c r="D19">
-        <v>5.770056106068809</v>
+        <v>8.098744588156796</v>
       </c>
       <c r="E19">
-        <v>7.894295984499737</v>
+        <v>13.0873830701418</v>
       </c>
       <c r="F19">
-        <v>25.46418316199695</v>
+        <v>37.59036499996932</v>
       </c>
       <c r="G19">
-        <v>2.091241129074217</v>
+        <v>3.684405831715309</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.91143427878118</v>
+        <v>29.17908021563084</v>
       </c>
       <c r="J19">
-        <v>5.669142725425984</v>
+        <v>10.22835158599784</v>
       </c>
       <c r="K19">
-        <v>20.6061239226357</v>
+        <v>16.97261877155027</v>
       </c>
       <c r="L19">
-        <v>5.686308779210913</v>
+        <v>10.2103319033969</v>
       </c>
       <c r="M19">
-        <v>16.35948211986894</v>
+        <v>18.95005418343669</v>
       </c>
       <c r="N19">
-        <v>12.73386568225656</v>
+        <v>19.02137580170383</v>
       </c>
       <c r="O19">
-        <v>18.38287293291171</v>
+        <v>28.88336848411124</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.390683806576345</v>
+        <v>9.515668214051326</v>
       </c>
       <c r="D20">
-        <v>5.829089499475285</v>
+        <v>8.105973941668667</v>
       </c>
       <c r="E20">
-        <v>7.916456996907514</v>
+        <v>13.08245283773602</v>
       </c>
       <c r="F20">
-        <v>25.61550476831404</v>
+        <v>37.57212524101833</v>
       </c>
       <c r="G20">
-        <v>2.089216447484155</v>
+        <v>3.683681120911161</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.99169079161375</v>
+        <v>29.15987257555099</v>
       </c>
       <c r="J20">
-        <v>5.653436351588004</v>
+        <v>10.22123217326215</v>
       </c>
       <c r="K20">
-        <v>21.00258808120724</v>
+        <v>17.09683915485343</v>
       </c>
       <c r="L20">
-        <v>5.674539243026744</v>
+        <v>10.20394635608039</v>
       </c>
       <c r="M20">
-        <v>16.60271006948931</v>
+        <v>19.00006512280567</v>
       </c>
       <c r="N20">
-        <v>12.69143854419019</v>
+        <v>19.00621696249919</v>
       </c>
       <c r="O20">
-        <v>18.44082478852332</v>
+        <v>28.85932472669201</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.675217256963086</v>
+        <v>9.555397316444312</v>
       </c>
       <c r="D21">
-        <v>6.025366048424523</v>
+        <v>8.131250321454303</v>
       </c>
       <c r="E21">
-        <v>7.994658203968541</v>
+        <v>13.06763888225566</v>
       </c>
       <c r="F21">
-        <v>26.14866943320632</v>
+        <v>37.52046530836519</v>
       </c>
       <c r="G21">
-        <v>2.082512576879338</v>
+        <v>3.681324877660965</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.28104356318157</v>
+        <v>29.10219282706841</v>
       </c>
       <c r="J21">
-        <v>5.602376827999202</v>
+        <v>10.19821361046578</v>
       </c>
       <c r="K21">
-        <v>22.28656864968058</v>
+        <v>17.50949974245195</v>
       </c>
       <c r="L21">
-        <v>5.636739522538329</v>
+        <v>10.18336843197802</v>
       </c>
       <c r="M21">
-        <v>17.40043092176314</v>
+        <v>19.16963051667991</v>
       </c>
       <c r="N21">
-        <v>12.55359166499864</v>
+        <v>18.95737660899849</v>
       </c>
       <c r="O21">
-        <v>18.65774402492996</v>
+        <v>28.78545606425724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.858428076664326</v>
+        <v>9.582454505836807</v>
       </c>
       <c r="D22">
-        <v>6.1519364758658</v>
+        <v>8.148490623029184</v>
       </c>
       <c r="E22">
-        <v>8.048578515763692</v>
+        <v>13.0592590352166</v>
       </c>
       <c r="F22">
-        <v>26.51571709908109</v>
+        <v>37.49388291840629</v>
       </c>
       <c r="G22">
-        <v>2.078200616447529</v>
+        <v>3.679843328410255</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.48516080138119</v>
+        <v>29.06961228865675</v>
       </c>
       <c r="J22">
-        <v>5.57029537822158</v>
+        <v>10.18383957510757</v>
       </c>
       <c r="K22">
-        <v>23.09022561095913</v>
+        <v>17.77527187536176</v>
       </c>
       <c r="L22">
-        <v>5.613354220973751</v>
+        <v>10.17057091485114</v>
       </c>
       <c r="M22">
-        <v>17.90685035302761</v>
+        <v>19.28147020872019</v>
       </c>
       <c r="N22">
-        <v>12.46711484002553</v>
+        <v>18.92701175271468</v>
       </c>
       <c r="O22">
-        <v>18.8166171827518</v>
+        <v>28.74234351354234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.760910339799697</v>
+        <v>9.567915357671557</v>
       </c>
       <c r="D23">
-        <v>6.084549761977928</v>
+        <v>8.139224165373269</v>
       </c>
       <c r="E23">
-        <v>8.019541662213877</v>
+        <v>13.06361259362962</v>
       </c>
       <c r="F23">
-        <v>26.31810666290544</v>
+        <v>37.50741300036495</v>
       </c>
       <c r="G23">
-        <v>2.080495919973749</v>
+        <v>3.680628732488499</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.37482627003474</v>
+        <v>29.08653255120567</v>
       </c>
       <c r="J23">
-        <v>5.587299013329821</v>
+        <v>10.19145010508271</v>
       </c>
       <c r="K23">
-        <v>22.66452467548404</v>
+        <v>17.63380961727169</v>
       </c>
       <c r="L23">
-        <v>5.62571343404568</v>
+        <v>10.17734172190404</v>
       </c>
       <c r="M23">
-        <v>17.63795480538057</v>
+        <v>19.22169412046537</v>
       </c>
       <c r="N23">
-        <v>12.51293103068121</v>
+        <v>18.94307597529304</v>
       </c>
       <c r="O23">
-        <v>18.73022407886176</v>
+        <v>28.7648802258343</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.385990152617018</v>
+        <v>9.515037668181566</v>
       </c>
       <c r="D24">
-        <v>5.825854994738829</v>
+        <v>8.105573191249453</v>
       </c>
       <c r="E24">
-        <v>7.915225994407729</v>
+        <v>13.08271698779141</v>
       </c>
       <c r="F24">
-        <v>25.60710224305286</v>
+        <v>37.57309070273981</v>
       </c>
       <c r="G24">
-        <v>2.08932725131169</v>
+        <v>3.683720621898897</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.98721022923267</v>
+        <v>29.16090159729213</v>
       </c>
       <c r="J24">
-        <v>5.654292461983156</v>
+        <v>10.22161973979061</v>
       </c>
       <c r="K24">
-        <v>20.98099790894258</v>
+        <v>17.09003415265477</v>
       </c>
       <c r="L24">
-        <v>5.675179053586002</v>
+        <v>10.20429371669329</v>
       </c>
       <c r="M24">
-        <v>16.58942530787591</v>
+        <v>18.99731266610171</v>
       </c>
       <c r="N24">
-        <v>12.69375101100226</v>
+        <v>19.00704153700274</v>
       </c>
       <c r="O24">
-        <v>18.4375602408257</v>
+        <v>28.86061910928878</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.971374930819597</v>
+        <v>9.46285280577453</v>
       </c>
       <c r="D25">
-        <v>5.5406090947917</v>
+        <v>8.072463201127295</v>
       </c>
       <c r="E25">
-        <v>7.814630528197082</v>
+        <v>13.10893336433004</v>
       </c>
       <c r="F25">
-        <v>24.91892677122202</v>
+        <v>37.6747036425048</v>
       </c>
       <c r="G25">
-        <v>2.099177992281906</v>
+        <v>3.687308081468866</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.63136501750654</v>
+        <v>29.26303835072717</v>
       </c>
       <c r="J25">
-        <v>5.732008995012987</v>
+        <v>10.25705266203884</v>
       </c>
       <c r="K25">
-        <v>19.01045642889947</v>
+        <v>16.48941734016732</v>
       </c>
       <c r="L25">
-        <v>5.734080114602606</v>
+        <v>10.2361755230635</v>
       </c>
       <c r="M25">
-        <v>15.39719626181552</v>
+        <v>18.76046478401508</v>
       </c>
       <c r="N25">
-        <v>12.90363314892802</v>
+        <v>19.08273871300532</v>
       </c>
       <c r="O25">
-        <v>18.19165963964129</v>
+        <v>28.98599054945704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.428760145589459</v>
+        <v>6.659353368795577</v>
       </c>
       <c r="D2">
-        <v>8.050916247272447</v>
+        <v>5.326642851923085</v>
       </c>
       <c r="E2">
-        <v>13.13308168782856</v>
+        <v>7.750613177431291</v>
       </c>
       <c r="F2">
-        <v>37.77589305663253</v>
+        <v>24.47820683464874</v>
       </c>
       <c r="G2">
-        <v>3.690168876384484</v>
+        <v>2.106739133258627</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.35703054150622</v>
+        <v>18.42011321769136</v>
       </c>
       <c r="J2">
-        <v>10.28564733870244</v>
+        <v>5.793858231448512</v>
       </c>
       <c r="K2">
-        <v>16.03830506086214</v>
+        <v>17.42405561358324</v>
       </c>
       <c r="L2">
-        <v>10.26208512969714</v>
+        <v>5.782107764333211</v>
       </c>
       <c r="M2">
-        <v>18.59136596431139</v>
+        <v>14.47081314389257</v>
       </c>
       <c r="N2">
-        <v>19.14427219226823</v>
+        <v>13.07031451466702</v>
       </c>
       <c r="O2">
-        <v>29.09722937822778</v>
+        <v>18.06622674704927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.40842994453245</v>
+        <v>6.44493421502412</v>
       </c>
       <c r="D3">
-        <v>8.03812260440194</v>
+        <v>5.180002293553186</v>
       </c>
       <c r="E3">
-        <v>13.15247976500198</v>
+        <v>7.713377046462353</v>
       </c>
       <c r="F3">
-        <v>37.86086263577771</v>
+        <v>24.21948661479515</v>
       </c>
       <c r="G3">
-        <v>3.692245676917338</v>
+        <v>2.112068888369627</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.43241442933885</v>
+        <v>18.3070020988305</v>
       </c>
       <c r="J3">
-        <v>10.30659931843412</v>
+        <v>5.838636095671115</v>
       </c>
       <c r="K3">
-        <v>15.72881507287311</v>
+        <v>16.26319007387366</v>
       </c>
       <c r="L3">
-        <v>10.28117286066747</v>
+        <v>5.81751526580325</v>
       </c>
       <c r="M3">
-        <v>18.4804777005878</v>
+        <v>13.81556605024914</v>
       </c>
       <c r="N3">
-        <v>19.18960923536597</v>
+        <v>13.19059658166205</v>
       </c>
       <c r="O3">
-        <v>29.184380304146</v>
+        <v>18.01352997837507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.397338433290111</v>
+        <v>6.312301705077761</v>
       </c>
       <c r="D4">
-        <v>8.031172973431556</v>
+        <v>5.089468511772597</v>
       </c>
       <c r="E4">
-        <v>13.1658893008232</v>
+        <v>7.693501274885955</v>
       </c>
       <c r="F4">
-        <v>37.92109740921168</v>
+        <v>24.07983468605275</v>
       </c>
       <c r="G4">
-        <v>3.693589302120272</v>
+        <v>2.115446854033157</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.48445047007194</v>
+        <v>18.25178314191718</v>
       </c>
       <c r="J4">
-        <v>10.32024320410143</v>
+        <v>5.86753527972348</v>
       </c>
       <c r="K4">
-        <v>15.53756120404485</v>
+        <v>15.5077327324637</v>
       </c>
       <c r="L4">
-        <v>10.2936499158931</v>
+        <v>5.840651658427515</v>
       </c>
       <c r="M4">
-        <v>18.41435656598182</v>
+        <v>13.40094188426655</v>
       </c>
       <c r="N4">
-        <v>19.2192456570736</v>
+        <v>13.26798900115747</v>
       </c>
       <c r="O4">
-        <v>29.24367802000843</v>
+        <v>17.99627189763231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.39317174400048</v>
+        <v>6.25808621063458</v>
       </c>
       <c r="D5">
-        <v>8.02857071466199</v>
+        <v>5.052500765960965</v>
       </c>
       <c r="E5">
-        <v>13.17173122963092</v>
+        <v>7.686145719848772</v>
       </c>
       <c r="F5">
-        <v>37.94766756448644</v>
+        <v>24.0276676720081</v>
       </c>
       <c r="G5">
-        <v>3.694154109348557</v>
+        <v>2.116850496074361</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.50709939961597</v>
+        <v>18.23276580989216</v>
       </c>
       <c r="J5">
-        <v>10.32599962621051</v>
+        <v>5.879664470294591</v>
       </c>
       <c r="K5">
-        <v>15.45941473875419</v>
+        <v>15.19760926798646</v>
       </c>
       <c r="L5">
-        <v>10.29892524600794</v>
+        <v>5.850429008152613</v>
       </c>
       <c r="M5">
-        <v>18.38792575092342</v>
+        <v>13.22910523101412</v>
       </c>
       <c r="N5">
-        <v>19.23177606711027</v>
+        <v>13.30040714352179</v>
       </c>
       <c r="O5">
-        <v>29.26929503656954</v>
+        <v>17.99290709356484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.392501292723663</v>
+        <v>6.249076127116679</v>
       </c>
       <c r="D6">
-        <v>8.028152545995059</v>
+        <v>5.046359318545</v>
       </c>
       <c r="E6">
-        <v>13.17272408739379</v>
+        <v>7.684969044118953</v>
       </c>
       <c r="F6">
-        <v>37.95220165214212</v>
+        <v>24.0192890205639</v>
       </c>
       <c r="G6">
-        <v>3.694248939752628</v>
+        <v>2.117085222416403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.51094737661976</v>
+        <v>18.22981561109509</v>
       </c>
       <c r="J6">
-        <v>10.32696735334052</v>
+        <v>5.881699783547161</v>
       </c>
       <c r="K6">
-        <v>15.44642890709723</v>
+        <v>15.14879754457526</v>
       </c>
       <c r="L6">
-        <v>10.29981274931481</v>
+        <v>5.852073559024564</v>
       </c>
       <c r="M6">
-        <v>18.38356855534845</v>
+        <v>13.20040534000243</v>
       </c>
       <c r="N6">
-        <v>19.23388413816534</v>
+        <v>13.30584304470839</v>
       </c>
       <c r="O6">
-        <v>29.27363639102081</v>
+        <v>17.99256608185832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.397280805578557</v>
+        <v>6.31157110195297</v>
       </c>
       <c r="D7">
-        <v>8.031136945530653</v>
+        <v>5.088970185186721</v>
       </c>
       <c r="E7">
-        <v>13.16596655826748</v>
+        <v>7.693399073029009</v>
       </c>
       <c r="F7">
-        <v>37.92144755350962</v>
+        <v>24.07911206586811</v>
       </c>
       <c r="G7">
-        <v>3.693596849314779</v>
+        <v>2.115465673600147</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.48475007835409</v>
+        <v>18.25151268593534</v>
       </c>
       <c r="J7">
-        <v>10.32032004126771</v>
+        <v>5.867697431819629</v>
       </c>
       <c r="K7">
-        <v>15.53650800656104</v>
+        <v>15.50347916765641</v>
       </c>
       <c r="L7">
-        <v>10.29372028758551</v>
+        <v>5.840782108229474</v>
       </c>
       <c r="M7">
-        <v>18.41399800332038</v>
+        <v>13.39863575852115</v>
       </c>
       <c r="N7">
-        <v>19.21941280988619</v>
+        <v>13.2684226520562</v>
       </c>
       <c r="O7">
-        <v>29.24401762132508</v>
+        <v>17.99621183951443</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.421463599229698</v>
+        <v>6.585670524997381</v>
       </c>
       <c r="D8">
-        <v>8.046318264085253</v>
+        <v>5.276213372153452</v>
       </c>
       <c r="E8">
-        <v>13.1394593192227</v>
+        <v>7.737150016401646</v>
       </c>
       <c r="F8">
-        <v>37.80351505009468</v>
+        <v>24.38496630515987</v>
       </c>
       <c r="G8">
-        <v>3.690870780564949</v>
+        <v>2.108555293417874</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.38182828904039</v>
+        <v>18.37810415609843</v>
       </c>
       <c r="J8">
-        <v>10.29271012370346</v>
+        <v>5.809005386292363</v>
       </c>
       <c r="K8">
-        <v>15.93190604565789</v>
+        <v>17.03261461952327</v>
       </c>
       <c r="L8">
-        <v>10.26850970979967</v>
+        <v>5.79402529092129</v>
       </c>
       <c r="M8">
-        <v>18.55273614507455</v>
+        <v>14.24755829330592</v>
       </c>
       <c r="N8">
-        <v>19.1595314881713</v>
+        <v>13.11104708886462</v>
       </c>
       <c r="O8">
-        <v>29.12607658048208</v>
+        <v>18.0448472185132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.479768838080984</v>
+        <v>7.112235887295324</v>
       </c>
       <c r="D9">
-        <v>8.083182342915933</v>
+        <v>5.637407840867605</v>
       </c>
       <c r="E9">
-        <v>13.09935104444817</v>
+        <v>7.846940384423746</v>
       </c>
       <c r="F9">
-        <v>37.63637166905322</v>
+        <v>25.14035630661879</v>
       </c>
       <c r="G9">
-        <v>3.686065719127724</v>
+        <v>2.095813744947814</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.22571026648086</v>
+        <v>18.743149361699</v>
       </c>
       <c r="J9">
-        <v>10.24472914490114</v>
+        <v>5.705107573626682</v>
       </c>
       <c r="K9">
-        <v>16.69334100413541</v>
+        <v>19.69511848337082</v>
       </c>
       <c r="L9">
-        <v>10.22505905669991</v>
+        <v>5.713508615181081</v>
       </c>
       <c r="M9">
-        <v>18.83948094342303</v>
+        <v>15.80666167549289</v>
       </c>
       <c r="N9">
-        <v>19.05634174672618</v>
+        <v>12.83100950213007</v>
       </c>
       <c r="O9">
-        <v>28.94081304345809</v>
+        <v>18.26554622966525</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.529015861786357</v>
+        <v>7.488638427315903</v>
       </c>
       <c r="D10">
-        <v>8.114460390939977</v>
+        <v>5.896617323732601</v>
       </c>
       <c r="E10">
-        <v>13.07709121387987</v>
+        <v>7.942592440880084</v>
       </c>
       <c r="F10">
-        <v>37.55283939951062</v>
+        <v>25.79382105428121</v>
       </c>
       <c r="G10">
-        <v>3.682861657355556</v>
+        <v>2.086906084941193</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.13898873133651</v>
+        <v>19.08739878806981</v>
       </c>
       <c r="J10">
-        <v>10.21320446187641</v>
+        <v>5.635676202324174</v>
       </c>
       <c r="K10">
-        <v>17.23887689355851</v>
+        <v>21.44999001527546</v>
       </c>
       <c r="L10">
-        <v>10.19675804998843</v>
+        <v>5.661310959196471</v>
       </c>
       <c r="M10">
-        <v>19.05784674888521</v>
+        <v>16.87899224136672</v>
       </c>
       <c r="N10">
-        <v>18.98915411957376</v>
+        <v>12.64347200328058</v>
       </c>
       <c r="O10">
-        <v>28.83289048086489</v>
+        <v>18.51130891261493</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.552758738476678</v>
+        <v>7.656935507234421</v>
       </c>
       <c r="D11">
-        <v>8.129570130267934</v>
+        <v>6.012743834218921</v>
       </c>
       <c r="E11">
-        <v>13.06852285830819</v>
+        <v>7.989427452781854</v>
       </c>
       <c r="F11">
-        <v>37.52339444267807</v>
+        <v>26.11304029353155</v>
       </c>
       <c r="G11">
-        <v>3.681474150340822</v>
+        <v>2.082942843242624</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.10563232008402</v>
+        <v>19.26142567610054</v>
       </c>
       <c r="J11">
-        <v>10.19966609117549</v>
+        <v>5.605610578521658</v>
       </c>
       <c r="K11">
-        <v>17.48298018804303</v>
+        <v>22.20544466775665</v>
       </c>
       <c r="L11">
-        <v>10.18466384745318</v>
+        <v>5.639112421832381</v>
       </c>
       <c r="M11">
-        <v>19.15858091573689</v>
+        <v>17.3496026009899</v>
       </c>
       <c r="N11">
-        <v>18.96045068309957</v>
+        <v>12.56231567643928</v>
       </c>
       <c r="O11">
-        <v>28.78994183879588</v>
+        <v>18.64270228316795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.561937405008855</v>
+        <v>7.720197412448377</v>
       </c>
       <c r="D12">
-        <v>8.135415748696524</v>
+        <v>6.056427647689739</v>
       </c>
       <c r="E12">
-        <v>13.06550162157406</v>
+        <v>8.007644862938305</v>
       </c>
       <c r="F12">
-        <v>37.51347608506321</v>
+        <v>26.23710983898967</v>
       </c>
       <c r="G12">
-        <v>3.680958753321837</v>
+        <v>2.081454027867126</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.09387868621651</v>
+        <v>19.32989622589855</v>
       </c>
       <c r="J12">
-        <v>10.19465437075633</v>
+        <v>5.594446266822942</v>
       </c>
       <c r="K12">
-        <v>17.57474935586428</v>
+        <v>22.48542321548675</v>
       </c>
       <c r="L12">
-        <v>10.18019581320464</v>
+        <v>5.630932281599832</v>
       </c>
       <c r="M12">
-        <v>19.19690352407602</v>
+        <v>17.52525438544788</v>
       </c>
       <c r="N12">
-        <v>18.94984817117607</v>
+        <v>12.53220163938283</v>
       </c>
       <c r="O12">
-        <v>28.77456406947494</v>
+        <v>18.69538450123697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.559952345801642</v>
+        <v>7.706594347933435</v>
       </c>
       <c r="D13">
-        <v>8.134151326411331</v>
+        <v>6.04703298092296</v>
       </c>
       <c r="E13">
-        <v>13.06614237230879</v>
+        <v>8.003699915744651</v>
       </c>
       <c r="F13">
-        <v>37.51555737386837</v>
+        <v>26.21024701541084</v>
       </c>
       <c r="G13">
-        <v>3.681069308353344</v>
+        <v>2.081774151538796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.09637098415217</v>
+        <v>19.31503457772499</v>
       </c>
       <c r="J13">
-        <v>10.19572862776158</v>
+        <v>5.596840834249031</v>
       </c>
       <c r="K13">
-        <v>17.5550161785813</v>
+        <v>22.42539486925773</v>
       </c>
       <c r="L13">
-        <v>10.18115311922602</v>
+        <v>5.632683910638754</v>
       </c>
       <c r="M13">
-        <v>19.18864259269158</v>
+        <v>17.4875395579325</v>
       </c>
       <c r="N13">
-        <v>18.95211975406623</v>
+        <v>12.53865939264584</v>
       </c>
       <c r="O13">
-        <v>28.77783651135326</v>
+        <v>18.68390661833546</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.553510139199304</v>
+        <v>7.662149739013264</v>
       </c>
       <c r="D14">
-        <v>8.130048586498248</v>
+        <v>6.016343733379456</v>
       </c>
       <c r="E14">
-        <v>13.06826982529162</v>
+        <v>7.990916526649223</v>
       </c>
       <c r="F14">
-        <v>37.52255375811663</v>
+        <v>26.123183517336</v>
       </c>
       <c r="G14">
-        <v>3.681431547747945</v>
+        <v>2.08282012224063</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.10464774328961</v>
+        <v>19.26700692449645</v>
       </c>
       <c r="J14">
-        <v>10.19925147216133</v>
+        <v>5.604687641662447</v>
       </c>
       <c r="K14">
-        <v>17.49054392762812</v>
+        <v>22.2286004562856</v>
       </c>
       <c r="L14">
-        <v>10.18429402164218</v>
+        <v>5.638434886372163</v>
       </c>
       <c r="M14">
-        <v>19.16173033728452</v>
+        <v>17.36410526768434</v>
       </c>
       <c r="N14">
-        <v>18.95957306373663</v>
+        <v>12.55982566245116</v>
       </c>
       <c r="O14">
-        <v>28.78865893278256</v>
+        <v>18.64697722853295</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.549588401890336</v>
+        <v>7.634863828531581</v>
       </c>
       <c r="D15">
-        <v>8.127551587928535</v>
+        <v>5.997506888172891</v>
       </c>
       <c r="E15">
-        <v>13.06960202868035</v>
+        <v>7.983149224247414</v>
       </c>
       <c r="F15">
-        <v>37.52699970562547</v>
+        <v>26.07027062234767</v>
       </c>
       <c r="G15">
-        <v>3.681654733507336</v>
+        <v>2.083462344640245</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.10983184106286</v>
+        <v>19.23792516191645</v>
       </c>
       <c r="J15">
-        <v>10.20142427597885</v>
+        <v>5.609522882632564</v>
       </c>
       <c r="K15">
-        <v>17.45096350947285</v>
+        <v>22.10726633100231</v>
       </c>
       <c r="L15">
-        <v>10.18623246017309</v>
+        <v>5.641987064450773</v>
       </c>
       <c r="M15">
-        <v>19.14526809795914</v>
+        <v>17.28816285616751</v>
       </c>
       <c r="N15">
-        <v>18.9641731636066</v>
+        <v>12.57287176027627</v>
       </c>
       <c r="O15">
-        <v>28.79540341719779</v>
+        <v>18.62474114640856</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.527490757549291</v>
+        <v>7.477576666240315</v>
       </c>
       <c r="D16">
-        <v>8.113490426771115</v>
+        <v>5.888989227940391</v>
       </c>
       <c r="E16">
-        <v>13.0776824723776</v>
+        <v>7.939598888698349</v>
       </c>
       <c r="F16">
-        <v>37.55493598854426</v>
+        <v>25.77340391219609</v>
       </c>
       <c r="G16">
-        <v>3.682953739286488</v>
+        <v>2.087166813293064</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.14129140058022</v>
+        <v>19.0763820112545</v>
       </c>
       <c r="J16">
-        <v>10.21410533652454</v>
+        <v>5.637671830198589</v>
       </c>
       <c r="K16">
-        <v>17.22283518008958</v>
+        <v>21.39976265593198</v>
       </c>
       <c r="L16">
-        <v>10.19756409766639</v>
+        <v>5.662793103338791</v>
       </c>
       <c r="M16">
-        <v>19.05128960025796</v>
+        <v>16.84788296242648</v>
       </c>
       <c r="N16">
-        <v>18.99106733641287</v>
+        <v>12.6488610811316</v>
       </c>
       <c r="O16">
-        <v>28.83582113621643</v>
+        <v>18.50312576208337</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.514274357967494</v>
+        <v>7.380299863162312</v>
       </c>
       <c r="D17">
-        <v>8.105088079861563</v>
+        <v>5.82193383571942</v>
       </c>
       <c r="E17">
-        <v>13.08303813140269</v>
+        <v>7.913736248310434</v>
       </c>
       <c r="F17">
-        <v>37.57426632729158</v>
+        <v>25.59693312858262</v>
       </c>
       <c r="G17">
-        <v>3.683768540054965</v>
+        <v>2.089461596720424</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.16215265725469</v>
+        <v>18.98179133146135</v>
       </c>
       <c r="J17">
-        <v>10.22208996657176</v>
+        <v>5.655330997376178</v>
       </c>
       <c r="K17">
-        <v>17.08178432844786</v>
+        <v>20.9548041579455</v>
       </c>
       <c r="L17">
-        <v>10.20471520195574</v>
+        <v>5.675955464244764</v>
       </c>
       <c r="M17">
-        <v>18.99397778219078</v>
+        <v>16.57331390080302</v>
       </c>
       <c r="N17">
-        <v>19.00804207630219</v>
+        <v>12.69655625699274</v>
       </c>
       <c r="O17">
-        <v>28.86219180339649</v>
+        <v>18.43361645688531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.506799087763552</v>
+        <v>7.324075391821704</v>
       </c>
       <c r="D18">
-        <v>8.100338391095557</v>
+        <v>5.783198696589307</v>
       </c>
       <c r="E18">
-        <v>13.08626522515378</v>
+        <v>7.899173234642302</v>
       </c>
       <c r="F18">
-        <v>37.5861897258084</v>
+        <v>25.49749691928903</v>
       </c>
       <c r="G18">
-        <v>3.684243787026078</v>
+        <v>2.090789914046109</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.17472499022371</v>
+        <v>18.92902200658277</v>
       </c>
       <c r="J18">
-        <v>10.22675806140923</v>
+        <v>5.665630896963751</v>
       </c>
       <c r="K18">
-        <v>17.00027777183447</v>
+        <v>20.69483895758085</v>
       </c>
       <c r="L18">
-        <v>10.20890177500583</v>
+        <v>5.683671430176215</v>
       </c>
       <c r="M18">
-        <v>18.9611466443605</v>
+        <v>16.41377404154795</v>
       </c>
       <c r="N18">
-        <v>19.01798066161193</v>
+        <v>12.72437901945407</v>
       </c>
       <c r="O18">
-        <v>28.87793787144837</v>
+        <v>18.39547474982133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.504289955625216</v>
+        <v>7.304993337917019</v>
       </c>
       <c r="D19">
-        <v>8.098744588156796</v>
+        <v>5.770056106068795</v>
       </c>
       <c r="E19">
-        <v>13.0873830701418</v>
+        <v>7.894295984499636</v>
       </c>
       <c r="F19">
-        <v>37.59036499996932</v>
+        <v>25.46418316199683</v>
       </c>
       <c r="G19">
-        <v>3.684405831715309</v>
+        <v>2.091241129074352</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.17908021563084</v>
+        <v>18.91143427878109</v>
       </c>
       <c r="J19">
-        <v>10.22835158599784</v>
+        <v>5.669142725425953</v>
       </c>
       <c r="K19">
-        <v>16.97261877155027</v>
+        <v>20.60612392263573</v>
       </c>
       <c r="L19">
-        <v>10.2103319033969</v>
+        <v>5.686308779210821</v>
       </c>
       <c r="M19">
-        <v>18.95005418343669</v>
+        <v>16.35948211986891</v>
       </c>
       <c r="N19">
-        <v>19.02137580170383</v>
+        <v>12.7338656822565</v>
       </c>
       <c r="O19">
-        <v>28.88336848411124</v>
+        <v>18.38287293291159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.515668214051326</v>
+        <v>7.390683806576359</v>
       </c>
       <c r="D20">
-        <v>8.105973941668667</v>
+        <v>5.829089499475236</v>
       </c>
       <c r="E20">
-        <v>13.08245283773602</v>
+        <v>7.916456996907516</v>
       </c>
       <c r="F20">
-        <v>37.57212524101833</v>
+        <v>25.61550476831409</v>
       </c>
       <c r="G20">
-        <v>3.683681120911161</v>
+        <v>2.089216447484422</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.15987257555099</v>
+        <v>18.9916907916138</v>
       </c>
       <c r="J20">
-        <v>10.22123217326215</v>
+        <v>5.653436351588006</v>
       </c>
       <c r="K20">
-        <v>17.09683915485343</v>
+        <v>21.00258808120721</v>
       </c>
       <c r="L20">
-        <v>10.20394635608039</v>
+        <v>5.674539243026745</v>
       </c>
       <c r="M20">
-        <v>19.00006512280567</v>
+        <v>16.60271006948931</v>
       </c>
       <c r="N20">
-        <v>19.00621696249919</v>
+        <v>12.69143854419023</v>
       </c>
       <c r="O20">
-        <v>28.85932472669201</v>
+        <v>18.44082478852337</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.555397316444312</v>
+        <v>7.675217256963116</v>
       </c>
       <c r="D21">
-        <v>8.131250321454303</v>
+        <v>6.025366048424551</v>
       </c>
       <c r="E21">
-        <v>13.06763888225566</v>
+        <v>7.994658203968587</v>
       </c>
       <c r="F21">
-        <v>37.52046530836519</v>
+        <v>26.14866943320627</v>
       </c>
       <c r="G21">
-        <v>3.681324877660965</v>
+        <v>2.082512576879338</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.10219282706841</v>
+        <v>19.28104356318153</v>
       </c>
       <c r="J21">
-        <v>10.19821361046578</v>
+        <v>5.602376827999265</v>
       </c>
       <c r="K21">
-        <v>17.50949974245195</v>
+        <v>22.28656864968059</v>
       </c>
       <c r="L21">
-        <v>10.18336843197802</v>
+        <v>5.636739522538357</v>
       </c>
       <c r="M21">
-        <v>19.16963051667991</v>
+        <v>17.40043092176314</v>
       </c>
       <c r="N21">
-        <v>18.95737660899849</v>
+        <v>12.55359166499864</v>
       </c>
       <c r="O21">
-        <v>28.78545606425724</v>
+        <v>18.65774402492992</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.582454505836807</v>
+        <v>7.858428076664363</v>
       </c>
       <c r="D22">
-        <v>8.148490623029184</v>
+        <v>6.151936475865819</v>
       </c>
       <c r="E22">
-        <v>13.0592590352166</v>
+        <v>8.048578515763746</v>
       </c>
       <c r="F22">
-        <v>37.49388291840629</v>
+        <v>26.51571709908107</v>
       </c>
       <c r="G22">
-        <v>3.679843328410255</v>
+        <v>2.07820061644753</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.06961228865675</v>
+        <v>19.48516080138119</v>
       </c>
       <c r="J22">
-        <v>10.18383957510757</v>
+        <v>5.570295378221552</v>
       </c>
       <c r="K22">
-        <v>17.77527187536176</v>
+        <v>23.09022561095916</v>
       </c>
       <c r="L22">
-        <v>10.17057091485114</v>
+        <v>5.613354220973757</v>
       </c>
       <c r="M22">
-        <v>19.28147020872019</v>
+        <v>17.9068503530276</v>
       </c>
       <c r="N22">
-        <v>18.92701175271468</v>
+        <v>12.46711484002553</v>
       </c>
       <c r="O22">
-        <v>28.74234351354234</v>
+        <v>18.81661718275176</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.567915357671557</v>
+        <v>7.760910339799662</v>
       </c>
       <c r="D23">
-        <v>8.139224165373269</v>
+        <v>6.08454976197783</v>
       </c>
       <c r="E23">
-        <v>13.06361259362962</v>
+        <v>8.01954166221392</v>
       </c>
       <c r="F23">
-        <v>37.50741300036495</v>
+        <v>26.31810666290534</v>
       </c>
       <c r="G23">
-        <v>3.680628732488499</v>
+        <v>2.080495919973479</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.08653255120567</v>
+        <v>19.3748262700347</v>
       </c>
       <c r="J23">
-        <v>10.19145010508271</v>
+        <v>5.587299013330008</v>
       </c>
       <c r="K23">
-        <v>17.63380961727169</v>
+        <v>22.66452467548407</v>
       </c>
       <c r="L23">
-        <v>10.17734172190404</v>
+        <v>5.625713434045805</v>
       </c>
       <c r="M23">
-        <v>19.22169412046537</v>
+        <v>17.63795480538058</v>
       </c>
       <c r="N23">
-        <v>18.94307597529304</v>
+        <v>12.51293103068121</v>
       </c>
       <c r="O23">
-        <v>28.7648802258343</v>
+        <v>18.73022407886173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.515037668181566</v>
+        <v>7.385990152616912</v>
       </c>
       <c r="D24">
-        <v>8.105573191249453</v>
+        <v>5.825854994738625</v>
       </c>
       <c r="E24">
-        <v>13.08271698779141</v>
+        <v>7.915225994407582</v>
       </c>
       <c r="F24">
-        <v>37.57309070273981</v>
+        <v>25.60710224305286</v>
       </c>
       <c r="G24">
-        <v>3.683720621898897</v>
+        <v>2.089327251311691</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.16090159729213</v>
+        <v>18.98721022923266</v>
       </c>
       <c r="J24">
-        <v>10.22161973979061</v>
+        <v>5.654292461983191</v>
       </c>
       <c r="K24">
-        <v>17.09003415265477</v>
+        <v>20.98099790894256</v>
       </c>
       <c r="L24">
-        <v>10.20429371669329</v>
+        <v>5.675179053586</v>
       </c>
       <c r="M24">
-        <v>18.99731266610171</v>
+        <v>16.58942530787589</v>
       </c>
       <c r="N24">
-        <v>19.00704153700274</v>
+        <v>12.69375101100225</v>
       </c>
       <c r="O24">
-        <v>28.86061910928878</v>
+        <v>18.43756024082575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.46285280577453</v>
+        <v>6.971374930819736</v>
       </c>
       <c r="D25">
-        <v>8.072463201127295</v>
+        <v>5.54060909479174</v>
       </c>
       <c r="E25">
-        <v>13.10893336433004</v>
+        <v>7.814630528197142</v>
       </c>
       <c r="F25">
-        <v>37.6747036425048</v>
+        <v>24.91892677122203</v>
       </c>
       <c r="G25">
-        <v>3.687308081468866</v>
+        <v>2.099177992281775</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.26303835072717</v>
+        <v>18.6313650175066</v>
       </c>
       <c r="J25">
-        <v>10.25705266203884</v>
+        <v>5.73200899501302</v>
       </c>
       <c r="K25">
-        <v>16.48941734016732</v>
+        <v>19.01045642889948</v>
       </c>
       <c r="L25">
-        <v>10.2361755230635</v>
+        <v>5.734080114602577</v>
       </c>
       <c r="M25">
-        <v>18.76046478401508</v>
+        <v>15.39719626181553</v>
       </c>
       <c r="N25">
-        <v>19.08273871300532</v>
+        <v>12.90363314892806</v>
       </c>
       <c r="O25">
-        <v>28.98599054945704</v>
+        <v>18.19165963964133</v>
       </c>
     </row>
   </sheetData>
